--- a/data/trans_dic/LAWTONB_2R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,66</t>
+          <t>12,55; 21,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,25</t>
+          <t>11,14; 19,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,68</t>
+          <t>6,92; 13,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 17,32</t>
+          <t>11,11; 17,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,02; 24,19</t>
+          <t>16,81; 24,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,02</t>
+          <t>17,03; 25,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,11; 26,41</t>
+          <t>18,03; 27,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 20,95</t>
+          <t>5,26; 21,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,3</t>
+          <t>15,55; 21,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,95</t>
+          <t>15,23; 21,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,46</t>
+          <t>13,95; 19,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 18,05</t>
+          <t>6,35; 17,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,88; 47,55</t>
+          <t>34,09; 47,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,77; 48,13</t>
+          <t>34,94; 48,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,85; 41,08</t>
+          <t>30,63; 41,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,27; 44,52</t>
+          <t>35,3; 44,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,54; 54,26</t>
+          <t>43,42; 54,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,13; 59,77</t>
+          <t>49,22; 59,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,56; 53,57</t>
+          <t>42,82; 53,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,02; 64,47</t>
+          <t>58,16; 64,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41,54; 50,34</t>
+          <t>41,46; 50,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,44; 53,76</t>
+          <t>45,43; 53,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>39,29; 47,22</t>
+          <t>39,39; 47,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,99; 55,59</t>
+          <t>49,94; 55,49</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>22,83; 30,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,08; 31,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>17,94; 24,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,46</t>
+          <t>22,65; 28,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,72; 38,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>35,18; 42,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>31,84; 39,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,23; 41,92</t>
+          <t>17,34; 42,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,02; 33,51</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,78; 36,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>27,09; 32,14</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,97; 34,9</t>
+          <t>21,06; 34,9</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>47415</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46441</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>33358</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>51483</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69482</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>74564</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>84192</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>81089</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>116897</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>117550</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>132572</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36707; 63286</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34523; 59972</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23133; 45692</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40496; 61960</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>57631; 85066</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60289; 91690</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>68104; 103355</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31925; 127613</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>98845; 137961</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>101119; 141419</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>99309; 139833</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>61640; 173537</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>84794</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>103515</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>90985</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>111522</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>163262</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>212055</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>193313</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>259798</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>248056</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>315570</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>284298</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>371320</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>71553; 99170</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>87291; 120546</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>78710; 105515</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>98808; 124680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>144986; 183579</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>191451; 232346</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>171364; 215656</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>245820; 273048</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>225462; 274516</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>290232; 344845</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>258827; 313289</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>350837; 389896</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>132209</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>124343</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>163005</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>232744</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>286619</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>277505</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>340887</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>364953</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>436575</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>401848</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>503892</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>114697; 151761</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>129139; 173471</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>106103; 142797</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>145980; 181314</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>207894; 257407</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>261377; 315014</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>247689; 304264</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>178478; 434506</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>330432; 395194</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>400951; 471055</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>370897; 440086</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>352520; 584126</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>